--- a/Indiana_Pacers_2025-26_stats.xlsx
+++ b/Indiana_Pacers_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,20 +513,25 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -576,15 +585,18 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -636,15 +648,18 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>9</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -696,15 +711,18 @@
         <v>18</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>33</v>
       </c>
     </row>
@@ -756,15 +774,18 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>27</v>
       </c>
     </row>
@@ -816,15 +837,18 @@
         <v>12</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>15</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>8</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -876,15 +900,18 @@
         <v>31</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>25</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>27</v>
       </c>
     </row>
@@ -936,15 +963,18 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>7</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>32</v>
       </c>
     </row>
@@ -996,15 +1026,18 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
         <v>18</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>16</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1056,15 +1089,18 @@
         <v>25</v>
       </c>
       <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1116,15 +1152,18 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>12</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,20 +1259,25 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -1287,15 +1331,18 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1347,15 +1394,18 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1407,15 +1457,18 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1467,15 +1520,18 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1527,15 +1583,18 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
       <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1587,15 +1646,18 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1647,15 +1709,18 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
       <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1707,15 +1772,18 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1767,15 +1835,18 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1827,15 +1898,18 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +1924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,173 +1935,728 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bennedict Mathurin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Obi Toppin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Nembhard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Monté Morris</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Taelon Peter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jarace Walker</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RayJ Dennis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Johnny Furphy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Jackson</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Nesmith</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Sheppard</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Quenton Jackson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Jay Huff</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31</v>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>24.33333333333333</v>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15.88888888888889</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.33333333333333</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.8</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.1</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.9</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.2</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RayJ Dennis</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jay Huff</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Monté Morris</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Tony Bradley</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Johnny Furphy</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cody Martin</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Taelon Peter</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.714285714285714</v>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2052,18 +2681,965 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bennedict Mathurin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Obi Toppin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Andrew Nembhard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Monté Morris</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Taelon Peter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jarace Walker</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RayJ Dennis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Johnny Furphy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Jackson</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Nesmith</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Ben Sheppard</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Quenton Jackson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Jay Huff</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bennedict Mathurin</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.33333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aaron Nesmith</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.88888888888889</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Obi Toppin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Andrew Nembhard</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.33333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Quenton Jackson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jarace Walker</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Isaiah Jackson</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ben Sheppard</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RayJ Dennis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jay Huff</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Monté Morris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnny Furphy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Taelon Peter</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Andrew Nembhard</t>
         </is>
       </c>
@@ -2194,30 +3770,442 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.888888888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bennedict Mathurin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Obi Toppin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Isaiah Jackson</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jarace Walker</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ben Sheppard</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aaron Nesmith</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Quenton Jackson</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jay Huff</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Monté Morris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RayJ Dennis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnny Furphy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Andrew Nembhard</t>
+        </is>
+      </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Taelon Peter</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aaron Nesmith</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.888888888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bennedict Mathurin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jarace Walker</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Andrew Nembhard</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Quenton Jackson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RayJ Dennis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Monté Morris</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obi Toppin</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ben Sheppard</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jay Huff</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Johnny Furphy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Taelon Peter</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jeremiah Robinson-Earl</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Isaiah Jackson</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Indiana_Pacers_2025-26_stats.xlsx
+++ b/Indiana_Pacers_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,55 +484,60 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>T.J. McConnell</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RayJ Dennis</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cody Martin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tony Bradley</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Jackson</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Aaron Nesmith</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -576,27 +582,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>5</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>15</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>32</v>
       </c>
     </row>
@@ -630,36 +639,39 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>15</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>9</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -693,36 +705,39 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>6</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>18</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>33</v>
       </c>
     </row>
@@ -756,36 +771,39 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>17</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>27</v>
       </c>
     </row>
@@ -819,36 +837,39 @@
         <v>17</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
         <v>9</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>15</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>8</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -882,36 +903,39 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>31</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>25</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>27</v>
       </c>
     </row>
@@ -945,36 +969,39 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>21</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>17</v>
       </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>7</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1011,33 +1038,36 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>8</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>18</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>16</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1074,33 +1104,36 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>6</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>25</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>7</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1134,37 +1167,172 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>6</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>12</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>9</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>12</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,55 +1397,60 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>T.J. McConnell</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RayJ Dennis</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cody Martin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tony Bradley</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Jackson</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Aaron Nesmith</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -1334,15 +1507,18 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1376,11 +1552,11 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -1391,21 +1567,24 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1439,36 +1618,39 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1502,36 +1684,39 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1565,11 +1750,11 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1577,24 +1762,27 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1628,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1640,24 +1828,27 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
         <v>10</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1703,24 +1894,27 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
         <v>4</v>
       </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
       <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1763,27 +1957,30 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1817,36 +2014,39 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1883,34 +2083,169 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +2259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,55 +2310,60 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>T.J. McConnell</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RayJ Dennis</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cody Martin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tony Bradley</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Jackson</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Aaron Nesmith</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -2071,24 +2411,27 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2122,10 +2465,10 @@
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2134,24 +2477,27 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2185,36 +2531,39 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2248,36 +2597,39 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
       <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
       <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2311,38 +2663,41 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>11</v>
       </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
       </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2380,30 +2735,33 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>6</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>8</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>6</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2437,36 +2795,39 @@
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
         <v>10</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2503,33 +2864,36 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
       <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
         <v>15</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2563,38 +2927,41 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>6</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
       <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
       </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2626,37 +2993,172 @@
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>12</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>11</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,55 +3223,60 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>T.J. McConnell</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RayJ Dennis</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cody Martin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tony Bradley</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Jackson</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Aaron Nesmith</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ben Sheppard</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quenton Jackson</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Jay Huff</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pascal Siakam</t>
         </is>
@@ -2820,21 +3327,24 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2868,10 +3378,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2883,21 +3393,24 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2931,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2946,21 +3459,24 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2994,11 +3510,11 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -3009,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3021,9 +3537,12 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3057,10 +3576,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3072,21 +3591,24 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3126,30 +3648,33 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3189,30 +3714,33 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3261,21 +3789,24 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
       <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,21 +3855,24 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>3</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,10 +3906,10 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3393,15 +3927,150 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +4085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3453,117 +4122,117 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.33333333333333</v>
+        <v>24.09090909090909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.88888888888889</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>15.45454545454546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.33333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.9</v>
+        <v>11.09090909090909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RayJ Dennis</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.909090909090909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>RayJ Dennis</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Monté Morris</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.2</v>
+        <v>5.454545454545454</v>
       </c>
     </row>
     <row r="15">
@@ -3573,27 +4242,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.2</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Monté Morris</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -3603,7 +4272,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.714285714285714</v>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +4296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3644,7 +4323,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.333333333333333</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
@@ -3654,27 +4333,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.777777777777778</v>
+        <v>5.272727272727272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.363636363636364</v>
       </c>
     </row>
     <row r="6">
@@ -3704,7 +4383,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -3714,7 +4393,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
+        <v>1.727272727272727</v>
       </c>
     </row>
     <row r="10">
@@ -3730,80 +4409,90 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taelon Peter</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Taelon Peter</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Cody Martin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Johnny Furphy</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3818,7 +4507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,7 +4534,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.888888888888889</v>
+        <v>7.363636363636363</v>
       </c>
     </row>
     <row r="3">
@@ -3861,21 +4550,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.8</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -3885,7 +4574,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.9</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -3895,7 +4584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.7</v>
+        <v>5.272727272727272</v>
       </c>
     </row>
     <row r="8">
@@ -3905,7 +4594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.8</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="9">
@@ -3915,7 +4604,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.666666666666667</v>
+        <v>4.454545454545454</v>
       </c>
     </row>
     <row r="10">
@@ -3925,7 +4614,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.333333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -3935,7 +4624,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -3955,13 +4644,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.4</v>
+        <v>3.363636363636364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Monté Morris</t>
+          <t>RayJ Dennis</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3971,7 +4660,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RayJ Dennis</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3981,11 +4670,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Monté Morris</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -3995,7 +4684,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
@@ -4005,6 +4694,16 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>T.J. McConnell</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,7 +4718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4046,7 +4745,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.888888888888889</v>
+        <v>2.818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -4066,27 +4765,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.666666666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.333333333333333</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="7">
@@ -4112,7 +4811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Monté Morris</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4122,31 +4821,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Monté Morris</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -4166,7 +4865,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -4176,13 +4875,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4192,7 +4891,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4202,11 +4901,319 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Tony Bradley</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Isaiah Jackson</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" t="n">
+        <v>141</v>
+      </c>
+      <c r="E2" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128</v>
+      </c>
+      <c r="E3" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" t="n">
+        <v>114</v>
+      </c>
+      <c r="E4" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>108</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>114</v>
+      </c>
+      <c r="D7" t="n">
+        <v>109</v>
+      </c>
+      <c r="E7" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>117</v>
+      </c>
+      <c r="E8" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112</v>
+      </c>
+      <c r="E9" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>117</v>
+      </c>
+      <c r="E10" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>83</v>
+      </c>
+      <c r="D11" t="n">
+        <v>114</v>
+      </c>
+      <c r="E11" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>128</v>
+      </c>
+      <c r="D12" t="n">
+        <v>152</v>
+      </c>
+      <c r="E12" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>98</v>
+      </c>
+      <c r="D13" t="n">
+        <v>133</v>
+      </c>
+      <c r="E13" t="n">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
